--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>83.58023337697625</v>
+        <v>91.71956958525999</v>
       </c>
       <c r="R2">
-        <v>83.58023337697625</v>
+        <v>550.3174175115599</v>
       </c>
       <c r="S2">
-        <v>0.4500880388228312</v>
+        <v>0.4319116043837924</v>
       </c>
       <c r="T2">
-        <v>0.4500880388228312</v>
+        <v>0.3894903086387788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>10.23798024642336</v>
+        <v>11.49140013003666</v>
       </c>
       <c r="R3">
-        <v>10.23798024642336</v>
+        <v>103.42260117033</v>
       </c>
       <c r="S3">
-        <v>0.05513256262202463</v>
+        <v>0.05411352331049197</v>
       </c>
       <c r="T3">
-        <v>0.05513256262202463</v>
+        <v>0.07319793916791846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>33.78452626092325</v>
+        <v>3.742002883025556</v>
       </c>
       <c r="R4">
-        <v>33.78452626092325</v>
+        <v>33.67802594723</v>
       </c>
       <c r="S4">
-        <v>0.1819331025166313</v>
+        <v>0.01762126093836448</v>
       </c>
       <c r="T4">
-        <v>0.1819331025166313</v>
+        <v>0.02383581602749448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>9.999374385281603</v>
+        <v>0.7264223972588888</v>
       </c>
       <c r="R5">
-        <v>9.999374385281603</v>
+        <v>6.53780157533</v>
       </c>
       <c r="S5">
-        <v>0.05384764584500938</v>
+        <v>0.00342075594640415</v>
       </c>
       <c r="T5">
-        <v>0.05384764584500938</v>
+        <v>0.004627166563087904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.555426551986694</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>0.555426551986694</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.03333654093683805</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.03333654093683805</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>3.760149522277724</v>
+        <v>39.57670589631</v>
       </c>
       <c r="R6">
-        <v>3.760149522277724</v>
+        <v>356.19035306679</v>
       </c>
       <c r="S6">
-        <v>0.02024878677389275</v>
+        <v>0.1863684992984073</v>
       </c>
       <c r="T6">
-        <v>0.02024878677389275</v>
+        <v>0.2520957653447802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>0.4605913979570451</v>
+        <v>10.87381069589833</v>
       </c>
       <c r="R7">
-        <v>0.4605913979570451</v>
+        <v>65.24286417539</v>
       </c>
       <c r="S7">
-        <v>0.002480331420829212</v>
+        <v>0.05120526671317761</v>
       </c>
       <c r="T7">
-        <v>0.002480331420829212</v>
+        <v>0.04617601132643923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>1.51991523770241</v>
+        <v>0.7990018926320001</v>
       </c>
       <c r="R8">
-        <v>1.51991523770241</v>
+        <v>4.794011355792001</v>
       </c>
       <c r="S8">
-        <v>0.008184897802676658</v>
+        <v>0.00376253607504754</v>
       </c>
       <c r="T8">
-        <v>0.008184897802676658</v>
+        <v>0.00339298903354447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,557 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N9">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P9">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q9">
-        <v>0.4498568776220973</v>
+        <v>0.1001056862173333</v>
       </c>
       <c r="R9">
-        <v>0.4498568776220973</v>
+        <v>0.900951175956</v>
       </c>
       <c r="S9">
-        <v>0.002422524939439421</v>
+        <v>0.0004714022071579522</v>
       </c>
       <c r="T9">
-        <v>0.002422524939439421</v>
+        <v>0.0006376533622692433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N10">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O10">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P10">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q10">
-        <v>4.827197382851076</v>
+        <v>0.03259792211511112</v>
       </c>
       <c r="R10">
-        <v>4.827197382851076</v>
+        <v>0.293381299036</v>
       </c>
       <c r="S10">
-        <v>0.02599494779176634</v>
+        <v>0.0001535050906145794</v>
       </c>
       <c r="T10">
-        <v>0.02599494779176634</v>
+        <v>0.0002076422971075183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N11">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O11">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P11">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q11">
-        <v>0.5912971219918817</v>
+        <v>0.006328124661777778</v>
       </c>
       <c r="R11">
-        <v>0.5912971219918817</v>
+        <v>0.056953121956</v>
       </c>
       <c r="S11">
-        <v>0.003184195009345625</v>
+        <v>2.979942544179065E-05</v>
       </c>
       <c r="T11">
-        <v>0.003184195009345625</v>
+        <v>4.030889872410496E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N12">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O12">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P12">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q12">
-        <v>1.951233804433441</v>
+        <v>0.3447668044920001</v>
       </c>
       <c r="R12">
-        <v>1.951233804433441</v>
+        <v>3.102901240428</v>
       </c>
       <c r="S12">
-        <v>0.01050759205661877</v>
+        <v>0.001623522486419777</v>
       </c>
       <c r="T12">
-        <v>0.01050759205661877</v>
+        <v>0.002196096149881654</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N13">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O13">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P13">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q13">
-        <v>0.5775163805186986</v>
+        <v>0.09472564432466668</v>
       </c>
       <c r="R13">
-        <v>0.5775163805186986</v>
+        <v>0.5683538659480001</v>
       </c>
       <c r="S13">
-        <v>0.003109984317982587</v>
+        <v>0.0004460673463859157</v>
       </c>
       <c r="T13">
-        <v>0.003109984317982587</v>
+        <v>0.0004022557084693392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N14">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O14">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P14">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q14">
-        <v>20.62605146877127</v>
+        <v>3.806934775252</v>
       </c>
       <c r="R14">
-        <v>20.62605146877127</v>
+        <v>22.841608651512</v>
       </c>
       <c r="S14">
-        <v>0.1110733803812919</v>
+        <v>0.01792702815766144</v>
       </c>
       <c r="T14">
-        <v>0.1110733803812919</v>
+        <v>0.01616627953320545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N15">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O15">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P15">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q15">
-        <v>2.526543645152854</v>
+        <v>0.4769648502406666</v>
       </c>
       <c r="R15">
-        <v>2.526543645152854</v>
+        <v>4.292683652166</v>
       </c>
       <c r="S15">
-        <v>0.01360569393385289</v>
+        <v>0.002246049067103651</v>
       </c>
       <c r="T15">
-        <v>0.01360569393385289</v>
+        <v>0.0030381714758931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N16">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O16">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P16">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q16">
-        <v>8.337394493299126</v>
+        <v>0.1553164822828889</v>
       </c>
       <c r="R16">
-        <v>8.337394493299126</v>
+        <v>1.397848340546</v>
       </c>
       <c r="S16">
-        <v>0.04489771546169179</v>
+        <v>0.0007313923446586926</v>
       </c>
       <c r="T16">
-        <v>0.04489771546169179</v>
+        <v>0.0009893351805061296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5570086666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.671026</v>
+      </c>
+      <c r="I17">
+        <v>0.03090724684406269</v>
+      </c>
+      <c r="J17">
+        <v>0.03276598343823939</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.03015106479622222</v>
+      </c>
+      <c r="R17">
+        <v>0.271359583166</v>
+      </c>
+      <c r="S17">
+        <v>0.0001419827287557273</v>
+      </c>
+      <c r="T17">
+        <v>0.0001920563013929966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5570086666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.671026</v>
+      </c>
+      <c r="I18">
+        <v>0.03090724684406269</v>
+      </c>
+      <c r="J18">
+        <v>0.03276598343823939</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>1.642680385962</v>
+      </c>
+      <c r="R18">
+        <v>14.784123473658</v>
+      </c>
+      <c r="S18">
+        <v>0.00773545628483472</v>
+      </c>
+      <c r="T18">
+        <v>0.0104635481841494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5570086666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.671026</v>
+      </c>
+      <c r="I19">
+        <v>0.03090724684406269</v>
+      </c>
+      <c r="J19">
+        <v>0.03276598343823939</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>0.4513310328963333</v>
+      </c>
+      <c r="R19">
+        <v>2.707986197378</v>
+      </c>
+      <c r="S19">
+        <v>0.002125338261048458</v>
+      </c>
+      <c r="T19">
+        <v>0.001916592763092319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N17">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O17">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P17">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q17">
-        <v>2.467660143949134</v>
-      </c>
-      <c r="R17">
-        <v>2.467660143949134</v>
-      </c>
-      <c r="S17">
-        <v>0.0132886003041155</v>
-      </c>
-      <c r="T17">
-        <v>0.0132886003041155</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.58338</v>
+      </c>
+      <c r="I20">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J20">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.834606</v>
+      </c>
+      <c r="N20">
+        <v>13.669212</v>
+      </c>
+      <c r="O20">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P20">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q20">
+        <v>5.88546148276</v>
+      </c>
+      <c r="R20">
+        <v>35.31276889656</v>
+      </c>
+      <c r="S20">
+        <v>0.02771490449696139</v>
+      </c>
+      <c r="T20">
+        <v>0.0249928147260978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.58338</v>
+      </c>
+      <c r="I21">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J21">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.856297</v>
+      </c>
+      <c r="N21">
+        <v>2.568891</v>
+      </c>
+      <c r="O21">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P21">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q21">
+        <v>0.7373801812866667</v>
+      </c>
+      <c r="R21">
+        <v>6.636421631579999</v>
+      </c>
+      <c r="S21">
+        <v>0.003472356647337762</v>
+      </c>
+      <c r="T21">
+        <v>0.004696965473543031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.58338</v>
+      </c>
+      <c r="I22">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J22">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P22">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q22">
+        <v>0.2401168467755556</v>
+      </c>
+      <c r="R22">
+        <v>2.16105162098</v>
+      </c>
+      <c r="S22">
+        <v>0.001130721099099819</v>
+      </c>
+      <c r="T22">
+        <v>0.001529496679654252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.58338</v>
+      </c>
+      <c r="I23">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J23">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.162391</v>
+      </c>
+      <c r="O23">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P23">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q23">
+        <v>0.04661307350888889</v>
+      </c>
+      <c r="R23">
+        <v>0.41951766158</v>
+      </c>
+      <c r="S23">
+        <v>0.0002195030728504349</v>
+      </c>
+      <c r="T23">
+        <v>0.00029691603116447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.58338</v>
+      </c>
+      <c r="I24">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J24">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.949111</v>
+      </c>
+      <c r="N24">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P24">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q24">
+        <v>2.539558125060001</v>
+      </c>
+      <c r="R24">
+        <v>22.85602312554</v>
+      </c>
+      <c r="S24">
+        <v>0.01195889415072915</v>
+      </c>
+      <c r="T24">
+        <v>0.01617648145987428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.620553</v>
+      </c>
+      <c r="O25">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P25">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q25">
+        <v>0.6977507015233334</v>
+      </c>
+      <c r="R25">
+        <v>4.186504209140001</v>
+      </c>
+      <c r="S25">
+        <v>0.003285739633511009</v>
+      </c>
+      <c r="T25">
+        <v>0.002963022366089718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.834606</v>
+      </c>
+      <c r="N26">
+        <v>13.669212</v>
+      </c>
+      <c r="O26">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P26">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q26">
+        <v>20.961917719059</v>
+      </c>
+      <c r="R26">
+        <v>83.84767087623599</v>
+      </c>
+      <c r="S26">
+        <v>0.09871061927066452</v>
+      </c>
+      <c r="T26">
+        <v>0.05934366997850271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.856297</v>
+      </c>
+      <c r="N27">
+        <v>2.568891</v>
+      </c>
+      <c r="O27">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P27">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q27">
+        <v>2.6262855908705</v>
+      </c>
+      <c r="R27">
+        <v>15.757713545223</v>
+      </c>
+      <c r="S27">
+        <v>0.01236729771249611</v>
+      </c>
+      <c r="T27">
+        <v>0.01115261214141282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P28">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q28">
+        <v>0.8552106916021667</v>
+      </c>
+      <c r="R28">
+        <v>5.131264149613</v>
+      </c>
+      <c r="S28">
+        <v>0.004027225853395478</v>
+      </c>
+      <c r="T28">
+        <v>0.003631681632714971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.162391</v>
+      </c>
+      <c r="O29">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P29">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q29">
+        <v>0.1660191667871667</v>
+      </c>
+      <c r="R29">
+        <v>0.996115000723</v>
+      </c>
+      <c r="S29">
+        <v>0.0007817917703903967</v>
+      </c>
+      <c r="T29">
+        <v>0.0007050061050687512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.949111</v>
+      </c>
+      <c r="N30">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P30">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q30">
+        <v>9.045001588441501</v>
+      </c>
+      <c r="R30">
+        <v>54.27000953064901</v>
+      </c>
+      <c r="S30">
+        <v>0.04259332185468025</v>
+      </c>
+      <c r="T30">
+        <v>0.03840991051583049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.620553</v>
+      </c>
+      <c r="O31">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P31">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q31">
+        <v>2.48513949782725</v>
+      </c>
+      <c r="R31">
+        <v>9.940557991309001</v>
+      </c>
+      <c r="S31">
+        <v>0.01170263437211547</v>
+      </c>
+      <c r="T31">
+        <v>0.007035486933312068</v>
       </c>
     </row>
   </sheetData>
